--- a/Statystyki_2018/Template/otrc_.xlsx
+++ b/Statystyki_2018/Template/otrc_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061933A9-2F2A-4999-B983-48D4D3862EA2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B645123-4AC6-4083-997D-FAD78E398A15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="276" windowWidth="14940" windowHeight="9156" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -297,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +333,10 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
@@ -654,13 +663,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -704,104 +716,166 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+    <row r="3" ht="15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" ht="15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" ht="15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" ht="15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" ht="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" ht="15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" ht="15">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" ht="15">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" ht="15">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" ht="15">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" ht="15">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" ht="15">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" ht="15">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" ht="15">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" ht="15">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" ht="15">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28" ht="15">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -826,13 +900,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" customWidth="1"/>
-    <col min="20" max="20" width="18.109375" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -972,155 +1046,164 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
-        <v>0</v>
-      </c>
-      <c r="W4" s="13">
-        <v>0</v>
-      </c>
-      <c r="X4" s="13">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0</v>
-      </c>
-      <c r="X5" s="13">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="W1:X1"/>
@@ -1137,15 +1220,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="P1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1165,7 +1239,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
@@ -1233,266 +1307,266 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1520,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -1585,248 +1659,248 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <v>3</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
         <v>3</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="15">
         <v>2</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
         <v>0</v>
       </c>
     </row>
